--- a/Session_1_Introduction/penguins.xlsx
+++ b/Session_1_Introduction/penguins.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alanvazquez/Documents/GitHub/TEC-IN2039/Session_1_Introduction/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7A811D1C-31EC-974F-97D2-C280020B06E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D351014-6DF8-2E4A-B4BF-5DEF4F585CCC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="1000" windowWidth="27640" windowHeight="16440" xr2:uid="{50A2308A-8B89-B74A-829F-D49153068943}"/>
+    <workbookView xWindow="35180" yWindow="1420" windowWidth="26560" windowHeight="18940" xr2:uid="{50A2308A-8B89-B74A-829F-D49153068943}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1048" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1038" uniqueCount="17">
   <si>
     <t>species</t>
   </si>
@@ -93,8 +93,16 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -122,8 +130,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -440,35 +450,40 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{12812592-D975-C44E-84EA-B2537747AA44}">
   <dimension ref="A1:H345"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+    <sheetView tabSelected="1" topLeftCell="A268" zoomScale="200" workbookViewId="0">
+      <selection activeCell="C269" sqref="C269"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="3" max="3" width="14.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.5" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
     </row>
@@ -479,7 +494,7 @@
       <c r="B2" t="s">
         <v>9</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="2">
         <v>39.1</v>
       </c>
       <c r="D2">
@@ -505,7 +520,7 @@
       <c r="B3" t="s">
         <v>9</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="2">
         <v>39.5</v>
       </c>
       <c r="D3">
@@ -531,7 +546,7 @@
       <c r="B4" t="s">
         <v>9</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="2">
         <v>40.299999999999997</v>
       </c>
       <c r="D4">
@@ -557,21 +572,7 @@
       <c r="B5" t="s">
         <v>9</v>
       </c>
-      <c r="C5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D5" t="s">
-        <v>12</v>
-      </c>
-      <c r="E5" t="s">
-        <v>12</v>
-      </c>
-      <c r="F5" t="s">
-        <v>12</v>
-      </c>
-      <c r="G5" t="s">
-        <v>12</v>
-      </c>
+      <c r="C5" s="2"/>
       <c r="H5">
         <v>2007</v>
       </c>
@@ -583,7 +584,7 @@
       <c r="B6" t="s">
         <v>9</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="2">
         <v>36.700000000000003</v>
       </c>
       <c r="D6">
@@ -609,7 +610,7 @@
       <c r="B7" t="s">
         <v>9</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="2">
         <v>39.299999999999997</v>
       </c>
       <c r="D7">
@@ -635,7 +636,7 @@
       <c r="B8" t="s">
         <v>9</v>
       </c>
-      <c r="C8">
+      <c r="C8" s="2">
         <v>38.9</v>
       </c>
       <c r="D8">
@@ -661,7 +662,7 @@
       <c r="B9" t="s">
         <v>9</v>
       </c>
-      <c r="C9">
+      <c r="C9" s="2">
         <v>39.200000000000003</v>
       </c>
       <c r="D9">
@@ -687,7 +688,7 @@
       <c r="B10" t="s">
         <v>9</v>
       </c>
-      <c r="C10">
+      <c r="C10" s="2">
         <v>34.1</v>
       </c>
       <c r="D10">
@@ -713,7 +714,7 @@
       <c r="B11" t="s">
         <v>9</v>
       </c>
-      <c r="C11">
+      <c r="C11" s="2">
         <v>42</v>
       </c>
       <c r="D11">
@@ -739,7 +740,7 @@
       <c r="B12" t="s">
         <v>9</v>
       </c>
-      <c r="C12">
+      <c r="C12" s="2">
         <v>37.799999999999997</v>
       </c>
       <c r="D12">
@@ -765,7 +766,7 @@
       <c r="B13" t="s">
         <v>9</v>
       </c>
-      <c r="C13">
+      <c r="C13" s="2">
         <v>37.799999999999997</v>
       </c>
       <c r="D13">
@@ -791,7 +792,7 @@
       <c r="B14" t="s">
         <v>9</v>
       </c>
-      <c r="C14">
+      <c r="C14" s="2">
         <v>41.1</v>
       </c>
       <c r="D14">
@@ -817,7 +818,7 @@
       <c r="B15" t="s">
         <v>9</v>
       </c>
-      <c r="C15">
+      <c r="C15" s="2">
         <v>38.6</v>
       </c>
       <c r="D15">
@@ -843,7 +844,7 @@
       <c r="B16" t="s">
         <v>9</v>
       </c>
-      <c r="C16">
+      <c r="C16" s="2">
         <v>34.6</v>
       </c>
       <c r="D16">
@@ -869,7 +870,7 @@
       <c r="B17" t="s">
         <v>9</v>
       </c>
-      <c r="C17">
+      <c r="C17" s="2">
         <v>36.6</v>
       </c>
       <c r="D17">
@@ -895,7 +896,7 @@
       <c r="B18" t="s">
         <v>9</v>
       </c>
-      <c r="C18">
+      <c r="C18" s="2">
         <v>38.700000000000003</v>
       </c>
       <c r="D18">
@@ -921,7 +922,7 @@
       <c r="B19" t="s">
         <v>9</v>
       </c>
-      <c r="C19">
+      <c r="C19" s="2">
         <v>42.5</v>
       </c>
       <c r="D19">
@@ -947,7 +948,7 @@
       <c r="B20" t="s">
         <v>9</v>
       </c>
-      <c r="C20">
+      <c r="C20" s="2">
         <v>34.4</v>
       </c>
       <c r="D20">
@@ -973,7 +974,7 @@
       <c r="B21" t="s">
         <v>9</v>
       </c>
-      <c r="C21">
+      <c r="C21" s="2">
         <v>46</v>
       </c>
       <c r="D21">
@@ -999,7 +1000,7 @@
       <c r="B22" t="s">
         <v>13</v>
       </c>
-      <c r="C22">
+      <c r="C22" s="2">
         <v>37.799999999999997</v>
       </c>
       <c r="D22">
@@ -1025,7 +1026,7 @@
       <c r="B23" t="s">
         <v>13</v>
       </c>
-      <c r="C23">
+      <c r="C23" s="2">
         <v>37.700000000000003</v>
       </c>
       <c r="D23">
@@ -1051,7 +1052,7 @@
       <c r="B24" t="s">
         <v>13</v>
       </c>
-      <c r="C24">
+      <c r="C24" s="2">
         <v>35.9</v>
       </c>
       <c r="D24">
@@ -1077,7 +1078,7 @@
       <c r="B25" t="s">
         <v>13</v>
       </c>
-      <c r="C25">
+      <c r="C25" s="2">
         <v>38.200000000000003</v>
       </c>
       <c r="D25">
@@ -1103,7 +1104,7 @@
       <c r="B26" t="s">
         <v>13</v>
       </c>
-      <c r="C26">
+      <c r="C26" s="2">
         <v>38.799999999999997</v>
       </c>
       <c r="D26">
@@ -1129,7 +1130,7 @@
       <c r="B27" t="s">
         <v>13</v>
       </c>
-      <c r="C27">
+      <c r="C27" s="2">
         <v>35.299999999999997</v>
       </c>
       <c r="D27">
@@ -1155,7 +1156,7 @@
       <c r="B28" t="s">
         <v>13</v>
       </c>
-      <c r="C28">
+      <c r="C28" s="2">
         <v>40.6</v>
       </c>
       <c r="D28">
@@ -1181,7 +1182,7 @@
       <c r="B29" t="s">
         <v>13</v>
       </c>
-      <c r="C29">
+      <c r="C29" s="2">
         <v>40.5</v>
       </c>
       <c r="D29">
@@ -1207,7 +1208,7 @@
       <c r="B30" t="s">
         <v>13</v>
       </c>
-      <c r="C30">
+      <c r="C30" s="2">
         <v>37.9</v>
       </c>
       <c r="D30">
@@ -1233,7 +1234,7 @@
       <c r="B31" t="s">
         <v>13</v>
       </c>
-      <c r="C31">
+      <c r="C31" s="2">
         <v>40.5</v>
       </c>
       <c r="D31">
@@ -1259,7 +1260,7 @@
       <c r="B32" t="s">
         <v>14</v>
       </c>
-      <c r="C32">
+      <c r="C32" s="2">
         <v>39.5</v>
       </c>
       <c r="D32">
@@ -1285,7 +1286,7 @@
       <c r="B33" t="s">
         <v>14</v>
       </c>
-      <c r="C33">
+      <c r="C33" s="2">
         <v>37.200000000000003</v>
       </c>
       <c r="D33">
@@ -1311,7 +1312,7 @@
       <c r="B34" t="s">
         <v>14</v>
       </c>
-      <c r="C34">
+      <c r="C34" s="2">
         <v>39.5</v>
       </c>
       <c r="D34">
@@ -1337,7 +1338,7 @@
       <c r="B35" t="s">
         <v>14</v>
       </c>
-      <c r="C35">
+      <c r="C35" s="2">
         <v>40.9</v>
       </c>
       <c r="D35">
@@ -1363,7 +1364,7 @@
       <c r="B36" t="s">
         <v>14</v>
       </c>
-      <c r="C36">
+      <c r="C36" s="2">
         <v>36.4</v>
       </c>
       <c r="D36">
@@ -1389,7 +1390,7 @@
       <c r="B37" t="s">
         <v>14</v>
       </c>
-      <c r="C37">
+      <c r="C37" s="2">
         <v>39.200000000000003</v>
       </c>
       <c r="D37">
@@ -1415,7 +1416,7 @@
       <c r="B38" t="s">
         <v>14</v>
       </c>
-      <c r="C38">
+      <c r="C38" s="2">
         <v>38.799999999999997</v>
       </c>
       <c r="D38">
@@ -1441,7 +1442,7 @@
       <c r="B39" t="s">
         <v>14</v>
       </c>
-      <c r="C39">
+      <c r="C39" s="2">
         <v>42.2</v>
       </c>
       <c r="D39">
@@ -1467,7 +1468,7 @@
       <c r="B40" t="s">
         <v>14</v>
       </c>
-      <c r="C40">
+      <c r="C40" s="2">
         <v>37.6</v>
       </c>
       <c r="D40">
@@ -1493,7 +1494,7 @@
       <c r="B41" t="s">
         <v>14</v>
       </c>
-      <c r="C41">
+      <c r="C41" s="2">
         <v>39.799999999999997</v>
       </c>
       <c r="D41">
@@ -1519,7 +1520,7 @@
       <c r="B42" t="s">
         <v>14</v>
       </c>
-      <c r="C42">
+      <c r="C42" s="2">
         <v>36.5</v>
       </c>
       <c r="D42">
@@ -1545,7 +1546,7 @@
       <c r="B43" t="s">
         <v>14</v>
       </c>
-      <c r="C43">
+      <c r="C43" s="2">
         <v>40.799999999999997</v>
       </c>
       <c r="D43">
@@ -1571,7 +1572,7 @@
       <c r="B44" t="s">
         <v>14</v>
       </c>
-      <c r="C44">
+      <c r="C44" s="2">
         <v>36</v>
       </c>
       <c r="D44">
@@ -1597,7 +1598,7 @@
       <c r="B45" t="s">
         <v>14</v>
       </c>
-      <c r="C45">
+      <c r="C45" s="2">
         <v>44.1</v>
       </c>
       <c r="D45">
@@ -1623,7 +1624,7 @@
       <c r="B46" t="s">
         <v>14</v>
       </c>
-      <c r="C46">
+      <c r="C46" s="2">
         <v>37</v>
       </c>
       <c r="D46">
@@ -1649,7 +1650,7 @@
       <c r="B47" t="s">
         <v>14</v>
       </c>
-      <c r="C47">
+      <c r="C47" s="2">
         <v>39.6</v>
       </c>
       <c r="D47">
@@ -1675,7 +1676,7 @@
       <c r="B48" t="s">
         <v>14</v>
       </c>
-      <c r="C48">
+      <c r="C48" s="2">
         <v>41.1</v>
       </c>
       <c r="D48">
@@ -1701,7 +1702,7 @@
       <c r="B49" t="s">
         <v>14</v>
       </c>
-      <c r="C49">
+      <c r="C49" s="2">
         <v>37.5</v>
       </c>
       <c r="D49">
@@ -1727,7 +1728,7 @@
       <c r="B50" t="s">
         <v>14</v>
       </c>
-      <c r="C50">
+      <c r="C50" s="2">
         <v>36</v>
       </c>
       <c r="D50">
@@ -1753,7 +1754,7 @@
       <c r="B51" t="s">
         <v>14</v>
       </c>
-      <c r="C51">
+      <c r="C51" s="2">
         <v>42.3</v>
       </c>
       <c r="D51">
@@ -1779,7 +1780,7 @@
       <c r="B52" t="s">
         <v>13</v>
       </c>
-      <c r="C52">
+      <c r="C52" s="2">
         <v>39.6</v>
       </c>
       <c r="D52">
@@ -1805,7 +1806,7 @@
       <c r="B53" t="s">
         <v>13</v>
       </c>
-      <c r="C53">
+      <c r="C53" s="2">
         <v>40.1</v>
       </c>
       <c r="D53">
@@ -1831,7 +1832,7 @@
       <c r="B54" t="s">
         <v>13</v>
       </c>
-      <c r="C54">
+      <c r="C54" s="2">
         <v>35</v>
       </c>
       <c r="D54">
@@ -1857,7 +1858,7 @@
       <c r="B55" t="s">
         <v>13</v>
       </c>
-      <c r="C55">
+      <c r="C55" s="2">
         <v>42</v>
       </c>
       <c r="D55">
@@ -1883,7 +1884,7 @@
       <c r="B56" t="s">
         <v>13</v>
       </c>
-      <c r="C56">
+      <c r="C56" s="2">
         <v>34.5</v>
       </c>
       <c r="D56">
@@ -1909,7 +1910,7 @@
       <c r="B57" t="s">
         <v>13</v>
       </c>
-      <c r="C57">
+      <c r="C57" s="2">
         <v>41.4</v>
       </c>
       <c r="D57">
@@ -1935,7 +1936,7 @@
       <c r="B58" t="s">
         <v>13</v>
       </c>
-      <c r="C58">
+      <c r="C58" s="2">
         <v>39</v>
       </c>
       <c r="D58">
@@ -1961,7 +1962,7 @@
       <c r="B59" t="s">
         <v>13</v>
       </c>
-      <c r="C59">
+      <c r="C59" s="2">
         <v>40.6</v>
       </c>
       <c r="D59">
@@ -1987,7 +1988,7 @@
       <c r="B60" t="s">
         <v>13</v>
       </c>
-      <c r="C60">
+      <c r="C60" s="2">
         <v>36.5</v>
       </c>
       <c r="D60">
@@ -2013,7 +2014,7 @@
       <c r="B61" t="s">
         <v>13</v>
       </c>
-      <c r="C61">
+      <c r="C61" s="2">
         <v>37.6</v>
       </c>
       <c r="D61">
@@ -2039,7 +2040,7 @@
       <c r="B62" t="s">
         <v>13</v>
       </c>
-      <c r="C62">
+      <c r="C62" s="2">
         <v>35.700000000000003</v>
       </c>
       <c r="D62">
@@ -2065,7 +2066,7 @@
       <c r="B63" t="s">
         <v>13</v>
       </c>
-      <c r="C63">
+      <c r="C63" s="2">
         <v>41.3</v>
       </c>
       <c r="D63">
@@ -2091,7 +2092,7 @@
       <c r="B64" t="s">
         <v>13</v>
       </c>
-      <c r="C64">
+      <c r="C64" s="2">
         <v>37.6</v>
       </c>
       <c r="D64">
@@ -2117,7 +2118,7 @@
       <c r="B65" t="s">
         <v>13</v>
       </c>
-      <c r="C65">
+      <c r="C65" s="2">
         <v>41.1</v>
       </c>
       <c r="D65">
@@ -2143,7 +2144,7 @@
       <c r="B66" t="s">
         <v>13</v>
       </c>
-      <c r="C66">
+      <c r="C66" s="2">
         <v>36.4</v>
       </c>
       <c r="D66">
@@ -2169,7 +2170,7 @@
       <c r="B67" t="s">
         <v>13</v>
       </c>
-      <c r="C67">
+      <c r="C67" s="2">
         <v>41.6</v>
       </c>
       <c r="D67">
@@ -2195,7 +2196,7 @@
       <c r="B68" t="s">
         <v>13</v>
       </c>
-      <c r="C68">
+      <c r="C68" s="2">
         <v>35.5</v>
       </c>
       <c r="D68">
@@ -2221,7 +2222,7 @@
       <c r="B69" t="s">
         <v>13</v>
       </c>
-      <c r="C69">
+      <c r="C69" s="2">
         <v>41.1</v>
       </c>
       <c r="D69">
@@ -2247,7 +2248,7 @@
       <c r="B70" t="s">
         <v>9</v>
       </c>
-      <c r="C70">
+      <c r="C70" s="2">
         <v>35.9</v>
       </c>
       <c r="D70">
@@ -2273,7 +2274,7 @@
       <c r="B71" t="s">
         <v>9</v>
       </c>
-      <c r="C71">
+      <c r="C71" s="2">
         <v>41.8</v>
       </c>
       <c r="D71">
@@ -2299,7 +2300,7 @@
       <c r="B72" t="s">
         <v>9</v>
       </c>
-      <c r="C72">
+      <c r="C72" s="2">
         <v>33.5</v>
       </c>
       <c r="D72">
@@ -2325,7 +2326,7 @@
       <c r="B73" t="s">
         <v>9</v>
       </c>
-      <c r="C73">
+      <c r="C73" s="2">
         <v>39.700000000000003</v>
       </c>
       <c r="D73">
@@ -2351,7 +2352,7 @@
       <c r="B74" t="s">
         <v>9</v>
       </c>
-      <c r="C74">
+      <c r="C74" s="2">
         <v>39.6</v>
       </c>
       <c r="D74">
@@ -2377,7 +2378,7 @@
       <c r="B75" t="s">
         <v>9</v>
       </c>
-      <c r="C75">
+      <c r="C75" s="2">
         <v>45.8</v>
       </c>
       <c r="D75">
@@ -2403,7 +2404,7 @@
       <c r="B76" t="s">
         <v>9</v>
       </c>
-      <c r="C76">
+      <c r="C76" s="2">
         <v>35.5</v>
       </c>
       <c r="D76">
@@ -2429,7 +2430,7 @@
       <c r="B77" t="s">
         <v>9</v>
       </c>
-      <c r="C77">
+      <c r="C77" s="2">
         <v>42.8</v>
       </c>
       <c r="D77">
@@ -2455,7 +2456,7 @@
       <c r="B78" t="s">
         <v>9</v>
       </c>
-      <c r="C78">
+      <c r="C78" s="2">
         <v>40.9</v>
       </c>
       <c r="D78">
@@ -2481,7 +2482,7 @@
       <c r="B79" t="s">
         <v>9</v>
       </c>
-      <c r="C79">
+      <c r="C79" s="2">
         <v>37.200000000000003</v>
       </c>
       <c r="D79">
@@ -2507,7 +2508,7 @@
       <c r="B80" t="s">
         <v>9</v>
       </c>
-      <c r="C80">
+      <c r="C80" s="2">
         <v>36.200000000000003</v>
       </c>
       <c r="D80">
@@ -2533,7 +2534,7 @@
       <c r="B81" t="s">
         <v>9</v>
       </c>
-      <c r="C81">
+      <c r="C81" s="2">
         <v>42.1</v>
       </c>
       <c r="D81">
@@ -2559,7 +2560,7 @@
       <c r="B82" t="s">
         <v>9</v>
       </c>
-      <c r="C82">
+      <c r="C82" s="2">
         <v>34.6</v>
       </c>
       <c r="D82">
@@ -2585,7 +2586,7 @@
       <c r="B83" t="s">
         <v>9</v>
       </c>
-      <c r="C83">
+      <c r="C83" s="2">
         <v>42.9</v>
       </c>
       <c r="D83">
@@ -2611,7 +2612,7 @@
       <c r="B84" t="s">
         <v>9</v>
       </c>
-      <c r="C84">
+      <c r="C84" s="2">
         <v>36.700000000000003</v>
       </c>
       <c r="D84">
@@ -2637,7 +2638,7 @@
       <c r="B85" t="s">
         <v>9</v>
       </c>
-      <c r="C85">
+      <c r="C85" s="2">
         <v>35.1</v>
       </c>
       <c r="D85">
@@ -2663,7 +2664,7 @@
       <c r="B86" t="s">
         <v>14</v>
       </c>
-      <c r="C86">
+      <c r="C86" s="2">
         <v>37.299999999999997</v>
       </c>
       <c r="D86">
@@ -2689,7 +2690,7 @@
       <c r="B87" t="s">
         <v>14</v>
       </c>
-      <c r="C87">
+      <c r="C87" s="2">
         <v>41.3</v>
       </c>
       <c r="D87">
@@ -2715,7 +2716,7 @@
       <c r="B88" t="s">
         <v>14</v>
       </c>
-      <c r="C88">
+      <c r="C88" s="2">
         <v>36.299999999999997</v>
       </c>
       <c r="D88">
@@ -2741,7 +2742,7 @@
       <c r="B89" t="s">
         <v>14</v>
       </c>
-      <c r="C89">
+      <c r="C89" s="2">
         <v>36.9</v>
       </c>
       <c r="D89">
@@ -2767,7 +2768,7 @@
       <c r="B90" t="s">
         <v>14</v>
       </c>
-      <c r="C90">
+      <c r="C90" s="2">
         <v>38.299999999999997</v>
       </c>
       <c r="D90">
@@ -2793,7 +2794,7 @@
       <c r="B91" t="s">
         <v>14</v>
       </c>
-      <c r="C91">
+      <c r="C91" s="2">
         <v>38.9</v>
       </c>
       <c r="D91">
@@ -2819,7 +2820,7 @@
       <c r="B92" t="s">
         <v>14</v>
       </c>
-      <c r="C92">
+      <c r="C92" s="2">
         <v>35.700000000000003</v>
       </c>
       <c r="D92">
@@ -2845,7 +2846,7 @@
       <c r="B93" t="s">
         <v>14</v>
       </c>
-      <c r="C93">
+      <c r="C93" s="2">
         <v>41.1</v>
       </c>
       <c r="D93">
@@ -2871,7 +2872,7 @@
       <c r="B94" t="s">
         <v>14</v>
       </c>
-      <c r="C94">
+      <c r="C94" s="2">
         <v>34</v>
       </c>
       <c r="D94">
@@ -2897,7 +2898,7 @@
       <c r="B95" t="s">
         <v>14</v>
       </c>
-      <c r="C95">
+      <c r="C95" s="2">
         <v>39.6</v>
       </c>
       <c r="D95">
@@ -2923,7 +2924,7 @@
       <c r="B96" t="s">
         <v>14</v>
       </c>
-      <c r="C96">
+      <c r="C96" s="2">
         <v>36.200000000000003</v>
       </c>
       <c r="D96">
@@ -2949,7 +2950,7 @@
       <c r="B97" t="s">
         <v>14</v>
       </c>
-      <c r="C97">
+      <c r="C97" s="2">
         <v>40.799999999999997</v>
       </c>
       <c r="D97">
@@ -2975,7 +2976,7 @@
       <c r="B98" t="s">
         <v>14</v>
       </c>
-      <c r="C98">
+      <c r="C98" s="2">
         <v>38.1</v>
       </c>
       <c r="D98">
@@ -3001,7 +3002,7 @@
       <c r="B99" t="s">
         <v>14</v>
       </c>
-      <c r="C99">
+      <c r="C99" s="2">
         <v>40.299999999999997</v>
       </c>
       <c r="D99">
@@ -3027,7 +3028,7 @@
       <c r="B100" t="s">
         <v>14</v>
       </c>
-      <c r="C100">
+      <c r="C100" s="2">
         <v>33.1</v>
       </c>
       <c r="D100">
@@ -3053,7 +3054,7 @@
       <c r="B101" t="s">
         <v>14</v>
       </c>
-      <c r="C101">
+      <c r="C101" s="2">
         <v>43.2</v>
       </c>
       <c r="D101">
@@ -3079,7 +3080,7 @@
       <c r="B102" t="s">
         <v>13</v>
       </c>
-      <c r="C102">
+      <c r="C102" s="2">
         <v>35</v>
       </c>
       <c r="D102">
@@ -3105,7 +3106,7 @@
       <c r="B103" t="s">
         <v>13</v>
       </c>
-      <c r="C103">
+      <c r="C103" s="2">
         <v>41</v>
       </c>
       <c r="D103">
@@ -3131,7 +3132,7 @@
       <c r="B104" t="s">
         <v>13</v>
       </c>
-      <c r="C104">
+      <c r="C104" s="2">
         <v>37.700000000000003</v>
       </c>
       <c r="D104">
@@ -3157,7 +3158,7 @@
       <c r="B105" t="s">
         <v>13</v>
       </c>
-      <c r="C105">
+      <c r="C105" s="2">
         <v>37.799999999999997</v>
       </c>
       <c r="D105">
@@ -3183,7 +3184,7 @@
       <c r="B106" t="s">
         <v>13</v>
       </c>
-      <c r="C106">
+      <c r="C106" s="2">
         <v>37.9</v>
       </c>
       <c r="D106">
@@ -3209,7 +3210,7 @@
       <c r="B107" t="s">
         <v>13</v>
       </c>
-      <c r="C107">
+      <c r="C107" s="2">
         <v>39.700000000000003</v>
       </c>
       <c r="D107">
@@ -3235,7 +3236,7 @@
       <c r="B108" t="s">
         <v>13</v>
       </c>
-      <c r="C108">
+      <c r="C108" s="2">
         <v>38.6</v>
       </c>
       <c r="D108">
@@ -3261,7 +3262,7 @@
       <c r="B109" t="s">
         <v>13</v>
       </c>
-      <c r="C109">
+      <c r="C109" s="2">
         <v>38.200000000000003</v>
       </c>
       <c r="D109">
@@ -3287,7 +3288,7 @@
       <c r="B110" t="s">
         <v>13</v>
       </c>
-      <c r="C110">
+      <c r="C110" s="2">
         <v>38.1</v>
       </c>
       <c r="D110">
@@ -3313,7 +3314,7 @@
       <c r="B111" t="s">
         <v>13</v>
       </c>
-      <c r="C111">
+      <c r="C111" s="2">
         <v>43.2</v>
       </c>
       <c r="D111">
@@ -3339,7 +3340,7 @@
       <c r="B112" t="s">
         <v>13</v>
       </c>
-      <c r="C112">
+      <c r="C112" s="2">
         <v>38.1</v>
       </c>
       <c r="D112">
@@ -3365,7 +3366,7 @@
       <c r="B113" t="s">
         <v>13</v>
       </c>
-      <c r="C113">
+      <c r="C113" s="2">
         <v>45.6</v>
       </c>
       <c r="D113">
@@ -3391,7 +3392,7 @@
       <c r="B114" t="s">
         <v>13</v>
       </c>
-      <c r="C114">
+      <c r="C114" s="2">
         <v>39.700000000000003</v>
       </c>
       <c r="D114">
@@ -3417,7 +3418,7 @@
       <c r="B115" t="s">
         <v>13</v>
       </c>
-      <c r="C115">
+      <c r="C115" s="2">
         <v>42.2</v>
       </c>
       <c r="D115">
@@ -3443,7 +3444,7 @@
       <c r="B116" t="s">
         <v>13</v>
       </c>
-      <c r="C116">
+      <c r="C116" s="2">
         <v>39.6</v>
       </c>
       <c r="D116">
@@ -3469,7 +3470,7 @@
       <c r="B117" t="s">
         <v>13</v>
       </c>
-      <c r="C117">
+      <c r="C117" s="2">
         <v>42.7</v>
       </c>
       <c r="D117">
@@ -3495,7 +3496,7 @@
       <c r="B118" t="s">
         <v>9</v>
       </c>
-      <c r="C118">
+      <c r="C118" s="2">
         <v>38.6</v>
       </c>
       <c r="D118">
@@ -3521,7 +3522,7 @@
       <c r="B119" t="s">
         <v>9</v>
       </c>
-      <c r="C119">
+      <c r="C119" s="2">
         <v>37.299999999999997</v>
       </c>
       <c r="D119">
@@ -3547,7 +3548,7 @@
       <c r="B120" t="s">
         <v>9</v>
       </c>
-      <c r="C120">
+      <c r="C120" s="2">
         <v>35.700000000000003</v>
       </c>
       <c r="D120">
@@ -3573,7 +3574,7 @@
       <c r="B121" t="s">
         <v>9</v>
       </c>
-      <c r="C121">
+      <c r="C121" s="2">
         <v>41.1</v>
       </c>
       <c r="D121">
@@ -3599,7 +3600,7 @@
       <c r="B122" t="s">
         <v>9</v>
       </c>
-      <c r="C122">
+      <c r="C122" s="2">
         <v>36.200000000000003</v>
       </c>
       <c r="D122">
@@ -3625,7 +3626,7 @@
       <c r="B123" t="s">
         <v>9</v>
       </c>
-      <c r="C123">
+      <c r="C123" s="2">
         <v>37.700000000000003</v>
       </c>
       <c r="D123">
@@ -3651,7 +3652,7 @@
       <c r="B124" t="s">
         <v>9</v>
       </c>
-      <c r="C124">
+      <c r="C124" s="2">
         <v>40.200000000000003</v>
       </c>
       <c r="D124">
@@ -3677,7 +3678,7 @@
       <c r="B125" t="s">
         <v>9</v>
       </c>
-      <c r="C125">
+      <c r="C125" s="2">
         <v>41.4</v>
       </c>
       <c r="D125">
@@ -3703,7 +3704,7 @@
       <c r="B126" t="s">
         <v>9</v>
       </c>
-      <c r="C126">
+      <c r="C126" s="2">
         <v>35.200000000000003</v>
       </c>
       <c r="D126">
@@ -3729,7 +3730,7 @@
       <c r="B127" t="s">
         <v>9</v>
       </c>
-      <c r="C127">
+      <c r="C127" s="2">
         <v>40.6</v>
       </c>
       <c r="D127">
@@ -3755,7 +3756,7 @@
       <c r="B128" t="s">
         <v>9</v>
       </c>
-      <c r="C128">
+      <c r="C128" s="2">
         <v>38.799999999999997</v>
       </c>
       <c r="D128">
@@ -3781,7 +3782,7 @@
       <c r="B129" t="s">
         <v>9</v>
       </c>
-      <c r="C129">
+      <c r="C129" s="2">
         <v>41.5</v>
       </c>
       <c r="D129">
@@ -3807,7 +3808,7 @@
       <c r="B130" t="s">
         <v>9</v>
       </c>
-      <c r="C130">
+      <c r="C130" s="2">
         <v>39</v>
       </c>
       <c r="D130">
@@ -3833,7 +3834,7 @@
       <c r="B131" t="s">
         <v>9</v>
       </c>
-      <c r="C131">
+      <c r="C131" s="2">
         <v>44.1</v>
       </c>
       <c r="D131">
@@ -3859,7 +3860,7 @@
       <c r="B132" t="s">
         <v>9</v>
       </c>
-      <c r="C132">
+      <c r="C132" s="2">
         <v>38.5</v>
       </c>
       <c r="D132">
@@ -3885,7 +3886,7 @@
       <c r="B133" t="s">
         <v>9</v>
       </c>
-      <c r="C133">
+      <c r="C133" s="2">
         <v>43.1</v>
       </c>
       <c r="D133">
@@ -3911,7 +3912,7 @@
       <c r="B134" t="s">
         <v>14</v>
       </c>
-      <c r="C134">
+      <c r="C134" s="2">
         <v>36.799999999999997</v>
       </c>
       <c r="D134">
@@ -3937,7 +3938,7 @@
       <c r="B135" t="s">
         <v>14</v>
       </c>
-      <c r="C135">
+      <c r="C135" s="2">
         <v>37.5</v>
       </c>
       <c r="D135">
@@ -3963,7 +3964,7 @@
       <c r="B136" t="s">
         <v>14</v>
       </c>
-      <c r="C136">
+      <c r="C136" s="2">
         <v>38.1</v>
       </c>
       <c r="D136">
@@ -3989,7 +3990,7 @@
       <c r="B137" t="s">
         <v>14</v>
       </c>
-      <c r="C137">
+      <c r="C137" s="2">
         <v>41.1</v>
       </c>
       <c r="D137">
@@ -4015,7 +4016,7 @@
       <c r="B138" t="s">
         <v>14</v>
       </c>
-      <c r="C138">
+      <c r="C138" s="2">
         <v>35.6</v>
       </c>
       <c r="D138">
@@ -4041,7 +4042,7 @@
       <c r="B139" t="s">
         <v>14</v>
       </c>
-      <c r="C139">
+      <c r="C139" s="2">
         <v>40.200000000000003</v>
       </c>
       <c r="D139">
@@ -4067,7 +4068,7 @@
       <c r="B140" t="s">
         <v>14</v>
       </c>
-      <c r="C140">
+      <c r="C140" s="2">
         <v>37</v>
       </c>
       <c r="D140">
@@ -4093,7 +4094,7 @@
       <c r="B141" t="s">
         <v>14</v>
       </c>
-      <c r="C141">
+      <c r="C141" s="2">
         <v>39.700000000000003</v>
       </c>
       <c r="D141">
@@ -4119,7 +4120,7 @@
       <c r="B142" t="s">
         <v>14</v>
       </c>
-      <c r="C142">
+      <c r="C142" s="2">
         <v>40.200000000000003</v>
       </c>
       <c r="D142">
@@ -4145,7 +4146,7 @@
       <c r="B143" t="s">
         <v>14</v>
       </c>
-      <c r="C143">
+      <c r="C143" s="2">
         <v>40.6</v>
       </c>
       <c r="D143">
@@ -4171,7 +4172,7 @@
       <c r="B144" t="s">
         <v>14</v>
       </c>
-      <c r="C144">
+      <c r="C144" s="2">
         <v>32.1</v>
       </c>
       <c r="D144">
@@ -4197,7 +4198,7 @@
       <c r="B145" t="s">
         <v>14</v>
       </c>
-      <c r="C145">
+      <c r="C145" s="2">
         <v>40.700000000000003</v>
       </c>
       <c r="D145">
@@ -4223,7 +4224,7 @@
       <c r="B146" t="s">
         <v>14</v>
       </c>
-      <c r="C146">
+      <c r="C146" s="2">
         <v>37.299999999999997</v>
       </c>
       <c r="D146">
@@ -4249,7 +4250,7 @@
       <c r="B147" t="s">
         <v>14</v>
       </c>
-      <c r="C147">
+      <c r="C147" s="2">
         <v>39</v>
       </c>
       <c r="D147">
@@ -4275,7 +4276,7 @@
       <c r="B148" t="s">
         <v>14</v>
       </c>
-      <c r="C148">
+      <c r="C148" s="2">
         <v>39.200000000000003</v>
       </c>
       <c r="D148">
@@ -4301,7 +4302,7 @@
       <c r="B149" t="s">
         <v>14</v>
       </c>
-      <c r="C149">
+      <c r="C149" s="2">
         <v>36.6</v>
       </c>
       <c r="D149">
@@ -4327,7 +4328,7 @@
       <c r="B150" t="s">
         <v>14</v>
       </c>
-      <c r="C150">
+      <c r="C150" s="2">
         <v>36</v>
       </c>
       <c r="D150">
@@ -4353,7 +4354,7 @@
       <c r="B151" t="s">
         <v>14</v>
       </c>
-      <c r="C151">
+      <c r="C151" s="2">
         <v>37.799999999999997</v>
       </c>
       <c r="D151">
@@ -4379,7 +4380,7 @@
       <c r="B152" t="s">
         <v>14</v>
       </c>
-      <c r="C152">
+      <c r="C152" s="2">
         <v>36</v>
       </c>
       <c r="D152">
@@ -4405,7 +4406,7 @@
       <c r="B153" t="s">
         <v>14</v>
       </c>
-      <c r="C153">
+      <c r="C153" s="2">
         <v>41.5</v>
       </c>
       <c r="D153">
@@ -4431,7 +4432,7 @@
       <c r="B154" t="s">
         <v>13</v>
       </c>
-      <c r="C154">
+      <c r="C154" s="2">
         <v>46.1</v>
       </c>
       <c r="D154">
@@ -4457,7 +4458,7 @@
       <c r="B155" t="s">
         <v>13</v>
       </c>
-      <c r="C155">
+      <c r="C155" s="2">
         <v>50</v>
       </c>
       <c r="D155">
@@ -4483,7 +4484,7 @@
       <c r="B156" t="s">
         <v>13</v>
       </c>
-      <c r="C156">
+      <c r="C156" s="2">
         <v>48.7</v>
       </c>
       <c r="D156">
@@ -4509,7 +4510,7 @@
       <c r="B157" t="s">
         <v>13</v>
       </c>
-      <c r="C157">
+      <c r="C157" s="2">
         <v>50</v>
       </c>
       <c r="D157">
@@ -4535,7 +4536,7 @@
       <c r="B158" t="s">
         <v>13</v>
       </c>
-      <c r="C158">
+      <c r="C158" s="2">
         <v>47.6</v>
       </c>
       <c r="D158">
@@ -4561,7 +4562,7 @@
       <c r="B159" t="s">
         <v>13</v>
       </c>
-      <c r="C159">
+      <c r="C159" s="2">
         <v>46.5</v>
       </c>
       <c r="D159">
@@ -4587,7 +4588,7 @@
       <c r="B160" t="s">
         <v>13</v>
       </c>
-      <c r="C160">
+      <c r="C160" s="2">
         <v>45.4</v>
       </c>
       <c r="D160">
@@ -4613,7 +4614,7 @@
       <c r="B161" t="s">
         <v>13</v>
       </c>
-      <c r="C161">
+      <c r="C161" s="2">
         <v>46.7</v>
       </c>
       <c r="D161">
@@ -4639,7 +4640,7 @@
       <c r="B162" t="s">
         <v>13</v>
       </c>
-      <c r="C162">
+      <c r="C162" s="2">
         <v>43.3</v>
       </c>
       <c r="D162">
@@ -4665,7 +4666,7 @@
       <c r="B163" t="s">
         <v>13</v>
       </c>
-      <c r="C163">
+      <c r="C163" s="2">
         <v>46.8</v>
       </c>
       <c r="D163">
@@ -4691,7 +4692,7 @@
       <c r="B164" t="s">
         <v>13</v>
       </c>
-      <c r="C164">
+      <c r="C164" s="2">
         <v>40.9</v>
       </c>
       <c r="D164">
@@ -4717,7 +4718,7 @@
       <c r="B165" t="s">
         <v>13</v>
       </c>
-      <c r="C165">
+      <c r="C165" s="2">
         <v>49</v>
       </c>
       <c r="D165">
@@ -4743,7 +4744,7 @@
       <c r="B166" t="s">
         <v>13</v>
       </c>
-      <c r="C166">
+      <c r="C166" s="2">
         <v>45.5</v>
       </c>
       <c r="D166">
@@ -4769,7 +4770,7 @@
       <c r="B167" t="s">
         <v>13</v>
       </c>
-      <c r="C167">
+      <c r="C167" s="2">
         <v>48.4</v>
       </c>
       <c r="D167">
@@ -4795,7 +4796,7 @@
       <c r="B168" t="s">
         <v>13</v>
       </c>
-      <c r="C168">
+      <c r="C168" s="2">
         <v>45.8</v>
       </c>
       <c r="D168">
@@ -4821,7 +4822,7 @@
       <c r="B169" t="s">
         <v>13</v>
       </c>
-      <c r="C169">
+      <c r="C169" s="2">
         <v>49.3</v>
       </c>
       <c r="D169">
@@ -4847,7 +4848,7 @@
       <c r="B170" t="s">
         <v>13</v>
       </c>
-      <c r="C170">
+      <c r="C170" s="2">
         <v>42</v>
       </c>
       <c r="D170">
@@ -4873,7 +4874,7 @@
       <c r="B171" t="s">
         <v>13</v>
       </c>
-      <c r="C171">
+      <c r="C171" s="2">
         <v>49.2</v>
       </c>
       <c r="D171">
@@ -4899,7 +4900,7 @@
       <c r="B172" t="s">
         <v>13</v>
       </c>
-      <c r="C172">
+      <c r="C172" s="2">
         <v>46.2</v>
       </c>
       <c r="D172">
@@ -4925,7 +4926,7 @@
       <c r="B173" t="s">
         <v>13</v>
       </c>
-      <c r="C173">
+      <c r="C173" s="2">
         <v>48.7</v>
       </c>
       <c r="D173">
@@ -4951,7 +4952,7 @@
       <c r="B174" t="s">
         <v>13</v>
       </c>
-      <c r="C174">
+      <c r="C174" s="2">
         <v>50.2</v>
       </c>
       <c r="D174">
@@ -4977,7 +4978,7 @@
       <c r="B175" t="s">
         <v>13</v>
       </c>
-      <c r="C175">
+      <c r="C175" s="2">
         <v>45.1</v>
       </c>
       <c r="D175">
@@ -5003,7 +5004,7 @@
       <c r="B176" t="s">
         <v>13</v>
       </c>
-      <c r="C176">
+      <c r="C176" s="2">
         <v>46.5</v>
       </c>
       <c r="D176">
@@ -5029,7 +5030,7 @@
       <c r="B177" t="s">
         <v>13</v>
       </c>
-      <c r="C177">
+      <c r="C177" s="2">
         <v>46.3</v>
       </c>
       <c r="D177">
@@ -5055,7 +5056,7 @@
       <c r="B178" t="s">
         <v>13</v>
       </c>
-      <c r="C178">
+      <c r="C178" s="2">
         <v>42.9</v>
       </c>
       <c r="D178">
@@ -5081,7 +5082,7 @@
       <c r="B179" t="s">
         <v>13</v>
       </c>
-      <c r="C179">
+      <c r="C179" s="2">
         <v>46.1</v>
       </c>
       <c r="D179">
@@ -5107,7 +5108,7 @@
       <c r="B180" t="s">
         <v>13</v>
       </c>
-      <c r="C180">
+      <c r="C180" s="2">
         <v>44.5</v>
       </c>
       <c r="D180">
@@ -5133,7 +5134,7 @@
       <c r="B181" t="s">
         <v>13</v>
       </c>
-      <c r="C181">
+      <c r="C181" s="2">
         <v>47.8</v>
       </c>
       <c r="D181">
@@ -5159,7 +5160,7 @@
       <c r="B182" t="s">
         <v>13</v>
       </c>
-      <c r="C182">
+      <c r="C182" s="2">
         <v>48.2</v>
       </c>
       <c r="D182">
@@ -5185,7 +5186,7 @@
       <c r="B183" t="s">
         <v>13</v>
       </c>
-      <c r="C183">
+      <c r="C183" s="2">
         <v>50</v>
       </c>
       <c r="D183">
@@ -5211,7 +5212,7 @@
       <c r="B184" t="s">
         <v>13</v>
       </c>
-      <c r="C184">
+      <c r="C184" s="2">
         <v>47.3</v>
       </c>
       <c r="D184">
@@ -5237,7 +5238,7 @@
       <c r="B185" t="s">
         <v>13</v>
       </c>
-      <c r="C185">
+      <c r="C185" s="2">
         <v>42.8</v>
       </c>
       <c r="D185">
@@ -5263,7 +5264,7 @@
       <c r="B186" t="s">
         <v>13</v>
       </c>
-      <c r="C186">
+      <c r="C186" s="2">
         <v>45.1</v>
       </c>
       <c r="D186">
@@ -5289,7 +5290,7 @@
       <c r="B187" t="s">
         <v>13</v>
       </c>
-      <c r="C187">
+      <c r="C187" s="2">
         <v>59.6</v>
       </c>
       <c r="D187">
@@ -5315,7 +5316,7 @@
       <c r="B188" t="s">
         <v>13</v>
       </c>
-      <c r="C188">
+      <c r="C188" s="2">
         <v>49.1</v>
       </c>
       <c r="D188">
@@ -5341,7 +5342,7 @@
       <c r="B189" t="s">
         <v>13</v>
       </c>
-      <c r="C189">
+      <c r="C189" s="2">
         <v>48.4</v>
       </c>
       <c r="D189">
@@ -5367,7 +5368,7 @@
       <c r="B190" t="s">
         <v>13</v>
       </c>
-      <c r="C190">
+      <c r="C190" s="2">
         <v>42.6</v>
       </c>
       <c r="D190">
@@ -5393,7 +5394,7 @@
       <c r="B191" t="s">
         <v>13</v>
       </c>
-      <c r="C191">
+      <c r="C191" s="2">
         <v>44.4</v>
       </c>
       <c r="D191">
@@ -5419,7 +5420,7 @@
       <c r="B192" t="s">
         <v>13</v>
       </c>
-      <c r="C192">
+      <c r="C192" s="2">
         <v>44</v>
       </c>
       <c r="D192">
@@ -5445,7 +5446,7 @@
       <c r="B193" t="s">
         <v>13</v>
       </c>
-      <c r="C193">
+      <c r="C193" s="2">
         <v>48.7</v>
       </c>
       <c r="D193">
@@ -5471,7 +5472,7 @@
       <c r="B194" t="s">
         <v>13</v>
       </c>
-      <c r="C194">
+      <c r="C194" s="2">
         <v>42.7</v>
       </c>
       <c r="D194">
@@ -5497,7 +5498,7 @@
       <c r="B195" t="s">
         <v>13</v>
       </c>
-      <c r="C195">
+      <c r="C195" s="2">
         <v>49.6</v>
       </c>
       <c r="D195">
@@ -5523,7 +5524,7 @@
       <c r="B196" t="s">
         <v>13</v>
       </c>
-      <c r="C196">
+      <c r="C196" s="2">
         <v>45.3</v>
       </c>
       <c r="D196">
@@ -5549,7 +5550,7 @@
       <c r="B197" t="s">
         <v>13</v>
       </c>
-      <c r="C197">
+      <c r="C197" s="2">
         <v>49.6</v>
       </c>
       <c r="D197">
@@ -5575,7 +5576,7 @@
       <c r="B198" t="s">
         <v>13</v>
       </c>
-      <c r="C198">
+      <c r="C198" s="2">
         <v>50.5</v>
       </c>
       <c r="D198">
@@ -5601,7 +5602,7 @@
       <c r="B199" t="s">
         <v>13</v>
       </c>
-      <c r="C199">
+      <c r="C199" s="2">
         <v>43.6</v>
       </c>
       <c r="D199">
@@ -5627,7 +5628,7 @@
       <c r="B200" t="s">
         <v>13</v>
       </c>
-      <c r="C200">
+      <c r="C200" s="2">
         <v>45.5</v>
       </c>
       <c r="D200">
@@ -5653,7 +5654,7 @@
       <c r="B201" t="s">
         <v>13</v>
       </c>
-      <c r="C201">
+      <c r="C201" s="2">
         <v>50.5</v>
       </c>
       <c r="D201">
@@ -5679,7 +5680,7 @@
       <c r="B202" t="s">
         <v>13</v>
       </c>
-      <c r="C202">
+      <c r="C202" s="2">
         <v>44.9</v>
       </c>
       <c r="D202">
@@ -5705,7 +5706,7 @@
       <c r="B203" t="s">
         <v>13</v>
       </c>
-      <c r="C203">
+      <c r="C203" s="2">
         <v>45.2</v>
       </c>
       <c r="D203">
@@ -5731,7 +5732,7 @@
       <c r="B204" t="s">
         <v>13</v>
       </c>
-      <c r="C204">
+      <c r="C204" s="2">
         <v>46.6</v>
       </c>
       <c r="D204">
@@ -5757,7 +5758,7 @@
       <c r="B205" t="s">
         <v>13</v>
       </c>
-      <c r="C205">
+      <c r="C205" s="2">
         <v>48.5</v>
       </c>
       <c r="D205">
@@ -5783,7 +5784,7 @@
       <c r="B206" t="s">
         <v>13</v>
       </c>
-      <c r="C206">
+      <c r="C206" s="2">
         <v>45.1</v>
       </c>
       <c r="D206">
@@ -5809,7 +5810,7 @@
       <c r="B207" t="s">
         <v>13</v>
       </c>
-      <c r="C207">
+      <c r="C207" s="2">
         <v>50.1</v>
       </c>
       <c r="D207">
@@ -5835,7 +5836,7 @@
       <c r="B208" t="s">
         <v>13</v>
       </c>
-      <c r="C208">
+      <c r="C208" s="2">
         <v>46.5</v>
       </c>
       <c r="D208">
@@ -5861,7 +5862,7 @@
       <c r="B209" t="s">
         <v>13</v>
       </c>
-      <c r="C209">
+      <c r="C209" s="2">
         <v>45</v>
       </c>
       <c r="D209">
@@ -5887,7 +5888,7 @@
       <c r="B210" t="s">
         <v>13</v>
       </c>
-      <c r="C210">
+      <c r="C210" s="2">
         <v>43.8</v>
       </c>
       <c r="D210">
@@ -5913,7 +5914,7 @@
       <c r="B211" t="s">
         <v>13</v>
       </c>
-      <c r="C211">
+      <c r="C211" s="2">
         <v>45.5</v>
       </c>
       <c r="D211">
@@ -5939,7 +5940,7 @@
       <c r="B212" t="s">
         <v>13</v>
       </c>
-      <c r="C212">
+      <c r="C212" s="2">
         <v>43.2</v>
       </c>
       <c r="D212">
@@ -5965,7 +5966,7 @@
       <c r="B213" t="s">
         <v>13</v>
       </c>
-      <c r="C213">
+      <c r="C213" s="2">
         <v>50.4</v>
       </c>
       <c r="D213">
@@ -5991,7 +5992,7 @@
       <c r="B214" t="s">
         <v>13</v>
       </c>
-      <c r="C214">
+      <c r="C214" s="2">
         <v>45.3</v>
       </c>
       <c r="D214">
@@ -6017,7 +6018,7 @@
       <c r="B215" t="s">
         <v>13</v>
       </c>
-      <c r="C215">
+      <c r="C215" s="2">
         <v>46.2</v>
       </c>
       <c r="D215">
@@ -6043,7 +6044,7 @@
       <c r="B216" t="s">
         <v>13</v>
       </c>
-      <c r="C216">
+      <c r="C216" s="2">
         <v>45.7</v>
       </c>
       <c r="D216">
@@ -6069,7 +6070,7 @@
       <c r="B217" t="s">
         <v>13</v>
       </c>
-      <c r="C217">
+      <c r="C217" s="2">
         <v>54.3</v>
       </c>
       <c r="D217">
@@ -6095,7 +6096,7 @@
       <c r="B218" t="s">
         <v>13</v>
       </c>
-      <c r="C218">
+      <c r="C218" s="2">
         <v>45.8</v>
       </c>
       <c r="D218">
@@ -6121,7 +6122,7 @@
       <c r="B219" t="s">
         <v>13</v>
       </c>
-      <c r="C219">
+      <c r="C219" s="2">
         <v>49.8</v>
       </c>
       <c r="D219">
@@ -6147,7 +6148,7 @@
       <c r="B220" t="s">
         <v>13</v>
       </c>
-      <c r="C220">
+      <c r="C220" s="2">
         <v>46.2</v>
       </c>
       <c r="D220">
@@ -6173,7 +6174,7 @@
       <c r="B221" t="s">
         <v>13</v>
       </c>
-      <c r="C221">
+      <c r="C221" s="2">
         <v>49.5</v>
       </c>
       <c r="D221">
@@ -6199,7 +6200,7 @@
       <c r="B222" t="s">
         <v>13</v>
       </c>
-      <c r="C222">
+      <c r="C222" s="2">
         <v>43.5</v>
       </c>
       <c r="D222">
@@ -6225,7 +6226,7 @@
       <c r="B223" t="s">
         <v>13</v>
       </c>
-      <c r="C223">
+      <c r="C223" s="2">
         <v>50.7</v>
       </c>
       <c r="D223">
@@ -6251,7 +6252,7 @@
       <c r="B224" t="s">
         <v>13</v>
       </c>
-      <c r="C224">
+      <c r="C224" s="2">
         <v>47.7</v>
       </c>
       <c r="D224">
@@ -6277,7 +6278,7 @@
       <c r="B225" t="s">
         <v>13</v>
       </c>
-      <c r="C225">
+      <c r="C225" s="2">
         <v>46.4</v>
       </c>
       <c r="D225">
@@ -6303,7 +6304,7 @@
       <c r="B226" t="s">
         <v>13</v>
       </c>
-      <c r="C226">
+      <c r="C226" s="2">
         <v>48.2</v>
       </c>
       <c r="D226">
@@ -6329,7 +6330,7 @@
       <c r="B227" t="s">
         <v>13</v>
       </c>
-      <c r="C227">
+      <c r="C227" s="2">
         <v>46.5</v>
       </c>
       <c r="D227">
@@ -6355,7 +6356,7 @@
       <c r="B228" t="s">
         <v>13</v>
       </c>
-      <c r="C228">
+      <c r="C228" s="2">
         <v>46.4</v>
       </c>
       <c r="D228">
@@ -6381,7 +6382,7 @@
       <c r="B229" t="s">
         <v>13</v>
       </c>
-      <c r="C229">
+      <c r="C229" s="2">
         <v>48.6</v>
       </c>
       <c r="D229">
@@ -6407,7 +6408,7 @@
       <c r="B230" t="s">
         <v>13</v>
       </c>
-      <c r="C230">
+      <c r="C230" s="2">
         <v>47.5</v>
       </c>
       <c r="D230">
@@ -6433,7 +6434,7 @@
       <c r="B231" t="s">
         <v>13</v>
       </c>
-      <c r="C231">
+      <c r="C231" s="2">
         <v>51.1</v>
       </c>
       <c r="D231">
@@ -6459,7 +6460,7 @@
       <c r="B232" t="s">
         <v>13</v>
       </c>
-      <c r="C232">
+      <c r="C232" s="2">
         <v>45.2</v>
       </c>
       <c r="D232">
@@ -6485,7 +6486,7 @@
       <c r="B233" t="s">
         <v>13</v>
       </c>
-      <c r="C233">
+      <c r="C233" s="2">
         <v>45.2</v>
       </c>
       <c r="D233">
@@ -6511,7 +6512,7 @@
       <c r="B234" t="s">
         <v>13</v>
       </c>
-      <c r="C234">
+      <c r="C234" s="2">
         <v>49.1</v>
       </c>
       <c r="D234">
@@ -6537,7 +6538,7 @@
       <c r="B235" t="s">
         <v>13</v>
       </c>
-      <c r="C235">
+      <c r="C235" s="2">
         <v>52.5</v>
       </c>
       <c r="D235">
@@ -6563,7 +6564,7 @@
       <c r="B236" t="s">
         <v>13</v>
       </c>
-      <c r="C236">
+      <c r="C236" s="2">
         <v>47.4</v>
       </c>
       <c r="D236">
@@ -6589,7 +6590,7 @@
       <c r="B237" t="s">
         <v>13</v>
       </c>
-      <c r="C237">
+      <c r="C237" s="2">
         <v>50</v>
       </c>
       <c r="D237">
@@ -6615,7 +6616,7 @@
       <c r="B238" t="s">
         <v>13</v>
       </c>
-      <c r="C238">
+      <c r="C238" s="2">
         <v>44.9</v>
       </c>
       <c r="D238">
@@ -6641,7 +6642,7 @@
       <c r="B239" t="s">
         <v>13</v>
       </c>
-      <c r="C239">
+      <c r="C239" s="2">
         <v>50.8</v>
       </c>
       <c r="D239">
@@ -6667,7 +6668,7 @@
       <c r="B240" t="s">
         <v>13</v>
       </c>
-      <c r="C240">
+      <c r="C240" s="2">
         <v>43.4</v>
       </c>
       <c r="D240">
@@ -6693,7 +6694,7 @@
       <c r="B241" t="s">
         <v>13</v>
       </c>
-      <c r="C241">
+      <c r="C241" s="2">
         <v>51.3</v>
       </c>
       <c r="D241">
@@ -6719,7 +6720,7 @@
       <c r="B242" t="s">
         <v>13</v>
       </c>
-      <c r="C242">
+      <c r="C242" s="2">
         <v>47.5</v>
       </c>
       <c r="D242">
@@ -6745,7 +6746,7 @@
       <c r="B243" t="s">
         <v>13</v>
       </c>
-      <c r="C243">
+      <c r="C243" s="2">
         <v>52.1</v>
       </c>
       <c r="D243">
@@ -6771,7 +6772,7 @@
       <c r="B244" t="s">
         <v>13</v>
       </c>
-      <c r="C244">
+      <c r="C244" s="2">
         <v>47.5</v>
       </c>
       <c r="D244">
@@ -6797,7 +6798,7 @@
       <c r="B245" t="s">
         <v>13</v>
       </c>
-      <c r="C245">
+      <c r="C245" s="2">
         <v>52.2</v>
       </c>
       <c r="D245">
@@ -6823,7 +6824,7 @@
       <c r="B246" t="s">
         <v>13</v>
       </c>
-      <c r="C246">
+      <c r="C246" s="2">
         <v>45.5</v>
       </c>
       <c r="D246">
@@ -6849,7 +6850,7 @@
       <c r="B247" t="s">
         <v>13</v>
       </c>
-      <c r="C247">
+      <c r="C247" s="2">
         <v>49.5</v>
       </c>
       <c r="D247">
@@ -6875,7 +6876,7 @@
       <c r="B248" t="s">
         <v>13</v>
       </c>
-      <c r="C248">
+      <c r="C248" s="2">
         <v>44.5</v>
       </c>
       <c r="D248">
@@ -6901,7 +6902,7 @@
       <c r="B249" t="s">
         <v>13</v>
       </c>
-      <c r="C249">
+      <c r="C249" s="2">
         <v>50.8</v>
       </c>
       <c r="D249">
@@ -6927,7 +6928,7 @@
       <c r="B250" t="s">
         <v>13</v>
       </c>
-      <c r="C250">
+      <c r="C250" s="2">
         <v>49.4</v>
       </c>
       <c r="D250">
@@ -6953,7 +6954,7 @@
       <c r="B251" t="s">
         <v>13</v>
       </c>
-      <c r="C251">
+      <c r="C251" s="2">
         <v>46.9</v>
       </c>
       <c r="D251">
@@ -6979,7 +6980,7 @@
       <c r="B252" t="s">
         <v>13</v>
       </c>
-      <c r="C252">
+      <c r="C252" s="2">
         <v>48.4</v>
       </c>
       <c r="D252">
@@ -7005,7 +7006,7 @@
       <c r="B253" t="s">
         <v>13</v>
       </c>
-      <c r="C253">
+      <c r="C253" s="2">
         <v>51.1</v>
       </c>
       <c r="D253">
@@ -7031,7 +7032,7 @@
       <c r="B254" t="s">
         <v>13</v>
       </c>
-      <c r="C254">
+      <c r="C254" s="2">
         <v>48.5</v>
       </c>
       <c r="D254">
@@ -7057,7 +7058,7 @@
       <c r="B255" t="s">
         <v>13</v>
       </c>
-      <c r="C255">
+      <c r="C255" s="2">
         <v>55.9</v>
       </c>
       <c r="D255">
@@ -7083,7 +7084,7 @@
       <c r="B256" t="s">
         <v>13</v>
       </c>
-      <c r="C256">
+      <c r="C256" s="2">
         <v>47.2</v>
       </c>
       <c r="D256">
@@ -7109,7 +7110,7 @@
       <c r="B257" t="s">
         <v>13</v>
       </c>
-      <c r="C257">
+      <c r="C257" s="2">
         <v>49.1</v>
       </c>
       <c r="D257">
@@ -7135,7 +7136,7 @@
       <c r="B258" t="s">
         <v>13</v>
       </c>
-      <c r="C258">
+      <c r="C258" s="2">
         <v>47.3</v>
       </c>
       <c r="D258">
@@ -7161,7 +7162,7 @@
       <c r="B259" t="s">
         <v>13</v>
       </c>
-      <c r="C259">
+      <c r="C259" s="2">
         <v>46.8</v>
       </c>
       <c r="D259">
@@ -7187,7 +7188,7 @@
       <c r="B260" t="s">
         <v>13</v>
       </c>
-      <c r="C260">
+      <c r="C260" s="2">
         <v>41.7</v>
       </c>
       <c r="D260">
@@ -7213,7 +7214,7 @@
       <c r="B261" t="s">
         <v>13</v>
       </c>
-      <c r="C261">
+      <c r="C261" s="2">
         <v>53.4</v>
       </c>
       <c r="D261">
@@ -7239,7 +7240,7 @@
       <c r="B262" t="s">
         <v>13</v>
       </c>
-      <c r="C262">
+      <c r="C262" s="2">
         <v>43.3</v>
       </c>
       <c r="D262">
@@ -7265,7 +7266,7 @@
       <c r="B263" t="s">
         <v>13</v>
       </c>
-      <c r="C263">
+      <c r="C263" s="2">
         <v>48.1</v>
       </c>
       <c r="D263">
@@ -7291,7 +7292,7 @@
       <c r="B264" t="s">
         <v>13</v>
       </c>
-      <c r="C264">
+      <c r="C264" s="2">
         <v>50.5</v>
       </c>
       <c r="D264">
@@ -7317,7 +7318,7 @@
       <c r="B265" t="s">
         <v>13</v>
       </c>
-      <c r="C265">
+      <c r="C265" s="2">
         <v>49.8</v>
       </c>
       <c r="D265">
@@ -7343,7 +7344,7 @@
       <c r="B266" t="s">
         <v>13</v>
       </c>
-      <c r="C266">
+      <c r="C266" s="2">
         <v>43.5</v>
       </c>
       <c r="D266">
@@ -7369,7 +7370,7 @@
       <c r="B267" t="s">
         <v>13</v>
       </c>
-      <c r="C267">
+      <c r="C267" s="2">
         <v>51.5</v>
       </c>
       <c r="D267">
@@ -7395,7 +7396,7 @@
       <c r="B268" t="s">
         <v>13</v>
       </c>
-      <c r="C268">
+      <c r="C268" s="2">
         <v>46.2</v>
       </c>
       <c r="D268">
@@ -7421,7 +7422,7 @@
       <c r="B269" t="s">
         <v>13</v>
       </c>
-      <c r="C269">
+      <c r="C269" s="2">
         <v>55.1</v>
       </c>
       <c r="D269">
@@ -7447,7 +7448,7 @@
       <c r="B270" t="s">
         <v>13</v>
       </c>
-      <c r="C270">
+      <c r="C270" s="2">
         <v>44.5</v>
       </c>
       <c r="D270">
@@ -7473,7 +7474,7 @@
       <c r="B271" t="s">
         <v>13</v>
       </c>
-      <c r="C271">
+      <c r="C271" s="2">
         <v>48.8</v>
       </c>
       <c r="D271">
@@ -7499,7 +7500,7 @@
       <c r="B272" t="s">
         <v>13</v>
       </c>
-      <c r="C272">
+      <c r="C272" s="2">
         <v>47.2</v>
       </c>
       <c r="D272">
@@ -7525,21 +7526,7 @@
       <c r="B273" t="s">
         <v>13</v>
       </c>
-      <c r="C273" t="s">
-        <v>12</v>
-      </c>
-      <c r="D273" t="s">
-        <v>12</v>
-      </c>
-      <c r="E273" t="s">
-        <v>12</v>
-      </c>
-      <c r="F273" t="s">
-        <v>12</v>
-      </c>
-      <c r="G273" t="s">
-        <v>12</v>
-      </c>
+      <c r="C273" s="2"/>
       <c r="H273">
         <v>2009</v>
       </c>
@@ -7551,7 +7538,7 @@
       <c r="B274" t="s">
         <v>13</v>
       </c>
-      <c r="C274">
+      <c r="C274" s="2">
         <v>46.8</v>
       </c>
       <c r="D274">
@@ -7577,7 +7564,7 @@
       <c r="B275" t="s">
         <v>13</v>
       </c>
-      <c r="C275">
+      <c r="C275" s="2">
         <v>50.4</v>
       </c>
       <c r="D275">
@@ -7603,7 +7590,7 @@
       <c r="B276" t="s">
         <v>13</v>
       </c>
-      <c r="C276">
+      <c r="C276" s="2">
         <v>45.2</v>
       </c>
       <c r="D276">
@@ -7629,7 +7616,7 @@
       <c r="B277" t="s">
         <v>13</v>
       </c>
-      <c r="C277">
+      <c r="C277" s="2">
         <v>49.9</v>
       </c>
       <c r="D277">
@@ -7655,7 +7642,7 @@
       <c r="B278" t="s">
         <v>14</v>
       </c>
-      <c r="C278">
+      <c r="C278" s="2">
         <v>46.5</v>
       </c>
       <c r="D278">
@@ -7681,7 +7668,7 @@
       <c r="B279" t="s">
         <v>14</v>
       </c>
-      <c r="C279">
+      <c r="C279" s="2">
         <v>50</v>
       </c>
       <c r="D279">
@@ -7707,7 +7694,7 @@
       <c r="B280" t="s">
         <v>14</v>
       </c>
-      <c r="C280">
+      <c r="C280" s="2">
         <v>51.3</v>
       </c>
       <c r="D280">
@@ -7733,7 +7720,7 @@
       <c r="B281" t="s">
         <v>14</v>
       </c>
-      <c r="C281">
+      <c r="C281" s="2">
         <v>45.4</v>
       </c>
       <c r="D281">
@@ -7759,7 +7746,7 @@
       <c r="B282" t="s">
         <v>14</v>
       </c>
-      <c r="C282">
+      <c r="C282" s="2">
         <v>52.7</v>
       </c>
       <c r="D282">
@@ -7785,7 +7772,7 @@
       <c r="B283" t="s">
         <v>14</v>
       </c>
-      <c r="C283">
+      <c r="C283" s="2">
         <v>45.2</v>
       </c>
       <c r="D283">
@@ -7811,7 +7798,7 @@
       <c r="B284" t="s">
         <v>14</v>
       </c>
-      <c r="C284">
+      <c r="C284" s="2">
         <v>46.1</v>
       </c>
       <c r="D284">
@@ -7837,7 +7824,7 @@
       <c r="B285" t="s">
         <v>14</v>
       </c>
-      <c r="C285">
+      <c r="C285" s="2">
         <v>51.3</v>
       </c>
       <c r="D285">
@@ -7863,7 +7850,7 @@
       <c r="B286" t="s">
         <v>14</v>
       </c>
-      <c r="C286">
+      <c r="C286" s="2">
         <v>46</v>
       </c>
       <c r="D286">
@@ -7889,7 +7876,7 @@
       <c r="B287" t="s">
         <v>14</v>
       </c>
-      <c r="C287">
+      <c r="C287" s="2">
         <v>51.3</v>
       </c>
       <c r="D287">
@@ -7915,7 +7902,7 @@
       <c r="B288" t="s">
         <v>14</v>
       </c>
-      <c r="C288">
+      <c r="C288" s="2">
         <v>46.6</v>
       </c>
       <c r="D288">
@@ -7941,7 +7928,7 @@
       <c r="B289" t="s">
         <v>14</v>
       </c>
-      <c r="C289">
+      <c r="C289" s="2">
         <v>51.7</v>
       </c>
       <c r="D289">
@@ -7967,7 +7954,7 @@
       <c r="B290" t="s">
         <v>14</v>
       </c>
-      <c r="C290">
+      <c r="C290" s="2">
         <v>47</v>
       </c>
       <c r="D290">
@@ -7993,7 +7980,7 @@
       <c r="B291" t="s">
         <v>14</v>
       </c>
-      <c r="C291">
+      <c r="C291" s="2">
         <v>52</v>
       </c>
       <c r="D291">
@@ -8019,7 +8006,7 @@
       <c r="B292" t="s">
         <v>14</v>
       </c>
-      <c r="C292">
+      <c r="C292" s="2">
         <v>45.9</v>
       </c>
       <c r="D292">
@@ -8045,7 +8032,7 @@
       <c r="B293" t="s">
         <v>14</v>
       </c>
-      <c r="C293">
+      <c r="C293" s="2">
         <v>50.5</v>
       </c>
       <c r="D293">
@@ -8071,7 +8058,7 @@
       <c r="B294" t="s">
         <v>14</v>
       </c>
-      <c r="C294">
+      <c r="C294" s="2">
         <v>50.3</v>
       </c>
       <c r="D294">
@@ -8097,7 +8084,7 @@
       <c r="B295" t="s">
         <v>14</v>
       </c>
-      <c r="C295">
+      <c r="C295" s="2">
         <v>58</v>
       </c>
       <c r="D295">
@@ -8123,7 +8110,7 @@
       <c r="B296" t="s">
         <v>14</v>
       </c>
-      <c r="C296">
+      <c r="C296" s="2">
         <v>46.4</v>
       </c>
       <c r="D296">
@@ -8149,7 +8136,7 @@
       <c r="B297" t="s">
         <v>14</v>
       </c>
-      <c r="C297">
+      <c r="C297" s="2">
         <v>49.2</v>
       </c>
       <c r="D297">
@@ -8175,7 +8162,7 @@
       <c r="B298" t="s">
         <v>14</v>
       </c>
-      <c r="C298">
+      <c r="C298" s="2">
         <v>42.4</v>
       </c>
       <c r="D298">
@@ -8201,7 +8188,7 @@
       <c r="B299" t="s">
         <v>14</v>
       </c>
-      <c r="C299">
+      <c r="C299" s="2">
         <v>48.5</v>
       </c>
       <c r="D299">
@@ -8227,7 +8214,7 @@
       <c r="B300" t="s">
         <v>14</v>
       </c>
-      <c r="C300">
+      <c r="C300" s="2">
         <v>43.2</v>
       </c>
       <c r="D300">
@@ -8253,7 +8240,7 @@
       <c r="B301" t="s">
         <v>14</v>
       </c>
-      <c r="C301">
+      <c r="C301" s="2">
         <v>50.6</v>
       </c>
       <c r="D301">
@@ -8279,7 +8266,7 @@
       <c r="B302" t="s">
         <v>14</v>
       </c>
-      <c r="C302">
+      <c r="C302" s="2">
         <v>46.7</v>
       </c>
       <c r="D302">
@@ -8305,7 +8292,7 @@
       <c r="B303" t="s">
         <v>14</v>
       </c>
-      <c r="C303">
+      <c r="C303" s="2">
         <v>52</v>
       </c>
       <c r="D303">
@@ -8331,7 +8318,7 @@
       <c r="B304" t="s">
         <v>14</v>
       </c>
-      <c r="C304">
+      <c r="C304" s="2">
         <v>50.5</v>
       </c>
       <c r="D304">
@@ -8357,7 +8344,7 @@
       <c r="B305" t="s">
         <v>14</v>
       </c>
-      <c r="C305">
+      <c r="C305" s="2">
         <v>49.5</v>
       </c>
       <c r="D305">
@@ -8383,7 +8370,7 @@
       <c r="B306" t="s">
         <v>14</v>
       </c>
-      <c r="C306">
+      <c r="C306" s="2">
         <v>46.4</v>
       </c>
       <c r="D306">
@@ -8409,7 +8396,7 @@
       <c r="B307" t="s">
         <v>14</v>
       </c>
-      <c r="C307">
+      <c r="C307" s="2">
         <v>52.8</v>
       </c>
       <c r="D307">
@@ -8435,7 +8422,7 @@
       <c r="B308" t="s">
         <v>14</v>
       </c>
-      <c r="C308">
+      <c r="C308" s="2">
         <v>40.9</v>
       </c>
       <c r="D308">
@@ -8461,7 +8448,7 @@
       <c r="B309" t="s">
         <v>14</v>
       </c>
-      <c r="C309">
+      <c r="C309" s="2">
         <v>54.2</v>
       </c>
       <c r="D309">
@@ -8487,7 +8474,7 @@
       <c r="B310" t="s">
         <v>14</v>
       </c>
-      <c r="C310">
+      <c r="C310" s="2">
         <v>42.5</v>
       </c>
       <c r="D310">
@@ -8513,7 +8500,7 @@
       <c r="B311" t="s">
         <v>14</v>
       </c>
-      <c r="C311">
+      <c r="C311" s="2">
         <v>51</v>
       </c>
       <c r="D311">
@@ -8539,7 +8526,7 @@
       <c r="B312" t="s">
         <v>14</v>
       </c>
-      <c r="C312">
+      <c r="C312" s="2">
         <v>49.7</v>
       </c>
       <c r="D312">
@@ -8565,7 +8552,7 @@
       <c r="B313" t="s">
         <v>14</v>
       </c>
-      <c r="C313">
+      <c r="C313" s="2">
         <v>47.5</v>
       </c>
       <c r="D313">
@@ -8591,7 +8578,7 @@
       <c r="B314" t="s">
         <v>14</v>
       </c>
-      <c r="C314">
+      <c r="C314" s="2">
         <v>47.6</v>
       </c>
       <c r="D314">
@@ -8617,7 +8604,7 @@
       <c r="B315" t="s">
         <v>14</v>
       </c>
-      <c r="C315">
+      <c r="C315" s="2">
         <v>52</v>
       </c>
       <c r="D315">
@@ -8643,7 +8630,7 @@
       <c r="B316" t="s">
         <v>14</v>
       </c>
-      <c r="C316">
+      <c r="C316" s="2">
         <v>46.9</v>
       </c>
       <c r="D316">
@@ -8669,7 +8656,7 @@
       <c r="B317" t="s">
         <v>14</v>
       </c>
-      <c r="C317">
+      <c r="C317" s="2">
         <v>53.5</v>
       </c>
       <c r="D317">
@@ -8695,7 +8682,7 @@
       <c r="B318" t="s">
         <v>14</v>
       </c>
-      <c r="C318">
+      <c r="C318" s="2">
         <v>49</v>
       </c>
       <c r="D318">
@@ -8721,7 +8708,7 @@
       <c r="B319" t="s">
         <v>14</v>
       </c>
-      <c r="C319">
+      <c r="C319" s="2">
         <v>46.2</v>
       </c>
       <c r="D319">
@@ -8747,7 +8734,7 @@
       <c r="B320" t="s">
         <v>14</v>
       </c>
-      <c r="C320">
+      <c r="C320" s="2">
         <v>50.9</v>
       </c>
       <c r="D320">
@@ -8773,7 +8760,7 @@
       <c r="B321" t="s">
         <v>14</v>
       </c>
-      <c r="C321">
+      <c r="C321" s="2">
         <v>45.5</v>
       </c>
       <c r="D321">
@@ -8799,7 +8786,7 @@
       <c r="B322" t="s">
         <v>14</v>
       </c>
-      <c r="C322">
+      <c r="C322" s="2">
         <v>50.9</v>
       </c>
       <c r="D322">
@@ -8825,7 +8812,7 @@
       <c r="B323" t="s">
         <v>14</v>
       </c>
-      <c r="C323">
+      <c r="C323" s="2">
         <v>50.8</v>
       </c>
       <c r="D323">
@@ -8851,7 +8838,7 @@
       <c r="B324" t="s">
         <v>14</v>
       </c>
-      <c r="C324">
+      <c r="C324" s="2">
         <v>50.1</v>
       </c>
       <c r="D324">
@@ -8877,7 +8864,7 @@
       <c r="B325" t="s">
         <v>14</v>
       </c>
-      <c r="C325">
+      <c r="C325" s="2">
         <v>49</v>
       </c>
       <c r="D325">
@@ -8903,7 +8890,7 @@
       <c r="B326" t="s">
         <v>14</v>
       </c>
-      <c r="C326">
+      <c r="C326" s="2">
         <v>51.5</v>
       </c>
       <c r="D326">
@@ -8929,7 +8916,7 @@
       <c r="B327" t="s">
         <v>14</v>
       </c>
-      <c r="C327">
+      <c r="C327" s="2">
         <v>49.8</v>
       </c>
       <c r="D327">
@@ -8955,7 +8942,7 @@
       <c r="B328" t="s">
         <v>14</v>
       </c>
-      <c r="C328">
+      <c r="C328" s="2">
         <v>48.1</v>
       </c>
       <c r="D328">
@@ -8981,7 +8968,7 @@
       <c r="B329" t="s">
         <v>14</v>
       </c>
-      <c r="C329">
+      <c r="C329" s="2">
         <v>51.4</v>
       </c>
       <c r="D329">
@@ -9007,7 +8994,7 @@
       <c r="B330" t="s">
         <v>14</v>
       </c>
-      <c r="C330">
+      <c r="C330" s="2">
         <v>45.7</v>
       </c>
       <c r="D330">
@@ -9033,7 +9020,7 @@
       <c r="B331" t="s">
         <v>14</v>
       </c>
-      <c r="C331">
+      <c r="C331" s="2">
         <v>50.7</v>
       </c>
       <c r="D331">
@@ -9059,7 +9046,7 @@
       <c r="B332" t="s">
         <v>14</v>
       </c>
-      <c r="C332">
+      <c r="C332" s="2">
         <v>42.5</v>
       </c>
       <c r="D332">
@@ -9085,7 +9072,7 @@
       <c r="B333" t="s">
         <v>14</v>
       </c>
-      <c r="C333">
+      <c r="C333" s="2">
         <v>52.2</v>
       </c>
       <c r="D333">
@@ -9111,7 +9098,7 @@
       <c r="B334" t="s">
         <v>14</v>
       </c>
-      <c r="C334">
+      <c r="C334" s="2">
         <v>45.2</v>
       </c>
       <c r="D334">
@@ -9137,7 +9124,7 @@
       <c r="B335" t="s">
         <v>14</v>
       </c>
-      <c r="C335">
+      <c r="C335" s="2">
         <v>49.3</v>
       </c>
       <c r="D335">
@@ -9163,7 +9150,7 @@
       <c r="B336" t="s">
         <v>14</v>
       </c>
-      <c r="C336">
+      <c r="C336" s="2">
         <v>50.2</v>
       </c>
       <c r="D336">
@@ -9189,7 +9176,7 @@
       <c r="B337" t="s">
         <v>14</v>
       </c>
-      <c r="C337">
+      <c r="C337" s="2">
         <v>45.6</v>
       </c>
       <c r="D337">
@@ -9215,7 +9202,7 @@
       <c r="B338" t="s">
         <v>14</v>
       </c>
-      <c r="C338">
+      <c r="C338" s="2">
         <v>51.9</v>
       </c>
       <c r="D338">
@@ -9241,7 +9228,7 @@
       <c r="B339" t="s">
         <v>14</v>
       </c>
-      <c r="C339">
+      <c r="C339" s="2">
         <v>46.8</v>
       </c>
       <c r="D339">
@@ -9267,7 +9254,7 @@
       <c r="B340" t="s">
         <v>14</v>
       </c>
-      <c r="C340">
+      <c r="C340" s="2">
         <v>45.7</v>
       </c>
       <c r="D340">
@@ -9293,7 +9280,7 @@
       <c r="B341" t="s">
         <v>14</v>
       </c>
-      <c r="C341">
+      <c r="C341" s="2">
         <v>55.8</v>
       </c>
       <c r="D341">
@@ -9319,7 +9306,7 @@
       <c r="B342" t="s">
         <v>14</v>
       </c>
-      <c r="C342">
+      <c r="C342" s="2">
         <v>43.5</v>
       </c>
       <c r="D342">
@@ -9345,7 +9332,7 @@
       <c r="B343" t="s">
         <v>14</v>
       </c>
-      <c r="C343">
+      <c r="C343" s="2">
         <v>49.6</v>
       </c>
       <c r="D343">
@@ -9371,7 +9358,7 @@
       <c r="B344" t="s">
         <v>14</v>
       </c>
-      <c r="C344">
+      <c r="C344" s="2">
         <v>50.8</v>
       </c>
       <c r="D344">
@@ -9397,7 +9384,7 @@
       <c r="B345" t="s">
         <v>14</v>
       </c>
-      <c r="C345">
+      <c r="C345" s="2">
         <v>50.2</v>
       </c>
       <c r="D345">
